--- a/src/geografia/ExcelsUpload/provincia.xlsx
+++ b/src/geografia/ExcelsUpload/provincia.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Provincia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
